--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H2">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I2">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J2">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N2">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O2">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P2">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q2">
-        <v>104.4601222866777</v>
+        <v>107.9788779883311</v>
       </c>
       <c r="R2">
-        <v>104.4601222866777</v>
+        <v>971.80990189498</v>
       </c>
       <c r="S2">
-        <v>0.009915314918509823</v>
+        <v>0.009587178202907018</v>
       </c>
       <c r="T2">
-        <v>0.009915314918509823</v>
+        <v>0.009587178202907018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H3">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I3">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J3">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q3">
-        <v>334.1016641782677</v>
+        <v>339.3649232383045</v>
       </c>
       <c r="R3">
-        <v>334.1016641782677</v>
+        <v>3054.284309144741</v>
       </c>
       <c r="S3">
-        <v>0.0317128023843815</v>
+        <v>0.03013137435316827</v>
       </c>
       <c r="T3">
-        <v>0.0317128023843815</v>
+        <v>0.03013137435316828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H4">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I4">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J4">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N4">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q4">
-        <v>516.5080935696018</v>
+        <v>525.2954847891777</v>
       </c>
       <c r="R4">
-        <v>516.5080935696018</v>
+        <v>4727.6593631026</v>
       </c>
       <c r="S4">
-        <v>0.04902675100883822</v>
+        <v>0.04663969024016451</v>
       </c>
       <c r="T4">
-        <v>0.04902675100883822</v>
+        <v>0.04663969024016451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H5">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I5">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J5">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N5">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q5">
-        <v>531.298094279482</v>
+        <v>547.0256976801735</v>
       </c>
       <c r="R5">
-        <v>531.298094279482</v>
+        <v>4923.231279121561</v>
       </c>
       <c r="S5">
-        <v>0.05043061222853879</v>
+        <v>0.04856906223637655</v>
       </c>
       <c r="T5">
-        <v>0.05043061222853879</v>
+        <v>0.04856906223637655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H6">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I6">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J6">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N6">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q6">
-        <v>107.4975024010807</v>
+        <v>119.3664737635555</v>
       </c>
       <c r="R6">
-        <v>107.4975024010807</v>
+        <v>1074.298263872</v>
       </c>
       <c r="S6">
-        <v>0.01020362187912082</v>
+        <v>0.01059825473966772</v>
       </c>
       <c r="T6">
-        <v>0.01020362187912082</v>
+        <v>0.01059825473966772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H7">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I7">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J7">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N7">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O7">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P7">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q7">
-        <v>206.1491002890251</v>
+        <v>212.5158265653515</v>
       </c>
       <c r="R7">
-        <v>206.1491002890251</v>
+        <v>1912.642439088164</v>
       </c>
       <c r="S7">
-        <v>0.01956759387973485</v>
+        <v>0.018868755984298</v>
       </c>
       <c r="T7">
-        <v>0.01956759387973485</v>
+        <v>0.018868755984298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H8">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I8">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J8">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q8">
-        <v>659.3401957389802</v>
+        <v>667.9122668515702</v>
       </c>
       <c r="R8">
-        <v>659.3401957389802</v>
+        <v>6011.210401664132</v>
       </c>
       <c r="S8">
-        <v>0.06258431960516346</v>
+        <v>0.05930228249737492</v>
       </c>
       <c r="T8">
-        <v>0.06258431960516346</v>
+        <v>0.05930228249737492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H9">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I9">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J9">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N9">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q9">
-        <v>1019.314131082083</v>
+        <v>1033.846676505409</v>
       </c>
       <c r="R9">
-        <v>1019.314131082083</v>
+        <v>9304.62008854868</v>
       </c>
       <c r="S9">
-        <v>0.09675290808897533</v>
+        <v>0.09179269600496902</v>
       </c>
       <c r="T9">
-        <v>0.09675290808897533</v>
+        <v>0.09179269600496902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H10">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I10">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J10">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N10">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q10">
-        <v>1048.501779659101</v>
+        <v>1076.614431088579</v>
       </c>
       <c r="R10">
-        <v>1048.501779659101</v>
+        <v>9689.529879797208</v>
       </c>
       <c r="S10">
-        <v>0.09952338854636646</v>
+        <v>0.09558993943040407</v>
       </c>
       <c r="T10">
-        <v>0.09952338854636646</v>
+        <v>0.09558993943040407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H11">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I11">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J11">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N11">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P11">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q11">
-        <v>212.1432841374946</v>
+        <v>234.9280276721777</v>
       </c>
       <c r="R11">
-        <v>212.1432841374946</v>
+        <v>2114.3522490496</v>
       </c>
       <c r="S11">
-        <v>0.02013655952170404</v>
+        <v>0.02085868003179323</v>
       </c>
       <c r="T11">
-        <v>0.02013655952170404</v>
+        <v>0.02085868003179323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H12">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I12">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J12">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N12">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O12">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P12">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q12">
-        <v>128.0799756789886</v>
+        <v>131.7622855019266</v>
       </c>
       <c r="R12">
-        <v>128.0799756789886</v>
+        <v>1185.86056951734</v>
       </c>
       <c r="S12">
-        <v>0.01215730238307613</v>
+        <v>0.0116988482846228</v>
       </c>
       <c r="T12">
-        <v>0.01215730238307613</v>
+        <v>0.0116988482846228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H13">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I13">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J13">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P13">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q13">
-        <v>409.6465913071172</v>
+        <v>414.1133778950467</v>
       </c>
       <c r="R13">
-        <v>409.6465913071172</v>
+        <v>3727.02040105542</v>
       </c>
       <c r="S13">
-        <v>0.03888349802001115</v>
+        <v>0.03676810524477418</v>
       </c>
       <c r="T13">
-        <v>0.03888349802001115</v>
+        <v>0.03676810524477418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H14">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I14">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J14">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N14">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P14">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q14">
-        <v>633.2975935146147</v>
+        <v>640.9969702328666</v>
       </c>
       <c r="R14">
-        <v>633.2975935146147</v>
+        <v>5768.9727320958</v>
       </c>
       <c r="S14">
-        <v>0.06011236574660477</v>
+        <v>0.05691253970809072</v>
       </c>
       <c r="T14">
-        <v>0.06011236574660477</v>
+        <v>0.05691253970809073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H15">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I15">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J15">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N15">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P15">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q15">
-        <v>651.4318143995475</v>
+        <v>667.5134757597201</v>
       </c>
       <c r="R15">
-        <v>651.4318143995475</v>
+        <v>6007.621281837481</v>
       </c>
       <c r="S15">
-        <v>0.06183365906830382</v>
+        <v>0.05926687482010944</v>
       </c>
       <c r="T15">
-        <v>0.06183365906830382</v>
+        <v>0.05926687482010944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H16">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I16">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J16">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N16">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P16">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q16">
-        <v>131.8041487190406</v>
+        <v>145.6581109973333</v>
       </c>
       <c r="R16">
-        <v>131.8041487190406</v>
+        <v>1310.922998976</v>
       </c>
       <c r="S16">
-        <v>0.0125107994659323</v>
+        <v>0.01293262435067305</v>
       </c>
       <c r="T16">
-        <v>0.0125107994659323</v>
+        <v>0.01293262435067305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H17">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I17">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J17">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N17">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O17">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P17">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q17">
-        <v>221.3138223083345</v>
+        <v>257.7661964959136</v>
       </c>
       <c r="R17">
-        <v>221.3138223083345</v>
+        <v>2319.895768463222</v>
       </c>
       <c r="S17">
-        <v>0.02100702350303607</v>
+        <v>0.02288642470205079</v>
       </c>
       <c r="T17">
-        <v>0.02100702350303607</v>
+        <v>0.02288642470205079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H18">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I18">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J18">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P18">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q18">
-        <v>707.842521339821</v>
+        <v>810.1288614678764</v>
       </c>
       <c r="R18">
-        <v>707.842521339821</v>
+        <v>7291.159753210887</v>
       </c>
       <c r="S18">
-        <v>0.0671881418301904</v>
+        <v>0.0719293430984719</v>
       </c>
       <c r="T18">
-        <v>0.0671881418301904</v>
+        <v>0.0719293430984719</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H19">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I19">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J19">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N19">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P19">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q19">
-        <v>1094.29682771545</v>
+        <v>1253.980608737349</v>
       </c>
       <c r="R19">
-        <v>1094.29682771545</v>
+        <v>11285.82547863614</v>
       </c>
       <c r="S19">
-        <v>0.1038702370206661</v>
+        <v>0.1113378447982575</v>
       </c>
       <c r="T19">
-        <v>0.1038702370206661</v>
+        <v>0.1113378447982575</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H20">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I20">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J20">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N20">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P20">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q20">
-        <v>1125.631575534945</v>
+        <v>1305.854775521743</v>
       </c>
       <c r="R20">
-        <v>1125.631575534945</v>
+        <v>11752.69297969569</v>
       </c>
       <c r="S20">
-        <v>0.1068445193182659</v>
+        <v>0.1159436240983818</v>
       </c>
       <c r="T20">
-        <v>0.1068445193182659</v>
+        <v>0.1159436240983818</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.2278574875854</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H21">
-        <v>17.2278574875854</v>
+        <v>59.028022</v>
       </c>
       <c r="I21">
-        <v>0.3205277650177734</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J21">
-        <v>0.3205277650177734</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N21">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O21">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P21">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q21">
-        <v>227.7489497828845</v>
+        <v>284.9505616689777</v>
       </c>
       <c r="R21">
-        <v>227.7489497828845</v>
+        <v>2564.5550550208</v>
       </c>
       <c r="S21">
-        <v>0.02161784334561494</v>
+        <v>0.02530005742451</v>
       </c>
       <c r="T21">
-        <v>0.02161784334561494</v>
+        <v>0.02530005742451</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H22">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I22">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J22">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N22">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O22">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P22">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q22">
-        <v>30.46391073717694</v>
+        <v>31.96934147788056</v>
       </c>
       <c r="R22">
-        <v>30.46391073717694</v>
+        <v>287.724073300925</v>
       </c>
       <c r="S22">
-        <v>0.002891622774282403</v>
+        <v>0.002838478964479976</v>
       </c>
       <c r="T22">
-        <v>0.002891622774282403</v>
+        <v>0.002838478964479976</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H23">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I23">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J23">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N23">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O23">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P23">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q23">
-        <v>97.43472486789408</v>
+        <v>100.4758830499473</v>
       </c>
       <c r="R23">
-        <v>97.43472486789408</v>
+        <v>904.2829474495252</v>
       </c>
       <c r="S23">
-        <v>0.00924846687822364</v>
+        <v>0.008921005791506625</v>
       </c>
       <c r="T23">
-        <v>0.00924846687822364</v>
+        <v>0.008921005791506625</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H24">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I24">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J24">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N24">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O24">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P24">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q24">
-        <v>150.6302703183847</v>
+        <v>155.5244047991389</v>
       </c>
       <c r="R24">
-        <v>150.6302703183847</v>
+        <v>1399.71964319225</v>
       </c>
       <c r="S24">
-        <v>0.01429776773923541</v>
+        <v>0.01380862823812194</v>
       </c>
       <c r="T24">
-        <v>0.01429776773923541</v>
+        <v>0.01380862823812194</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H25">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I25">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J25">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N25">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O25">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P25">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q25">
-        <v>154.9435072892554</v>
+        <v>161.9580759878167</v>
       </c>
       <c r="R25">
-        <v>154.9435072892554</v>
+        <v>1457.62268389035</v>
       </c>
       <c r="S25">
-        <v>0.01470717854546608</v>
+        <v>0.01437985803170646</v>
       </c>
       <c r="T25">
-        <v>0.01470717854546608</v>
+        <v>0.01437985803170646</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.37141949481771</v>
+        <v>2.440308333333334</v>
       </c>
       <c r="H26">
-        <v>2.37141949481771</v>
+        <v>7.320925000000001</v>
       </c>
       <c r="I26">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893452</v>
       </c>
       <c r="J26">
-        <v>0.04412073823696528</v>
+        <v>0.04308579974893453</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N26">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O26">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P26">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q26">
-        <v>31.34970786869963</v>
+        <v>35.34087065777778</v>
       </c>
       <c r="R26">
-        <v>31.34970786869963</v>
+        <v>318.06783592</v>
       </c>
       <c r="S26">
-        <v>0.002975702299757746</v>
+        <v>0.003137828723119519</v>
       </c>
       <c r="T26">
-        <v>0.002975702299757746</v>
+        <v>0.003137828723119519</v>
       </c>
     </row>
   </sheetData>
